--- a/results/yq_test/Wstate_cz/Rb2Re4/cz_2q_wstate_indep_qiskit_19.qasm_rb2_archsize5_mini_dis.xlsx
+++ b/results/yq_test/Wstate_cz/Rb2Re4/cz_2q_wstate_indep_qiskit_19.qasm_rb2_archsize5_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N51"/>
+  <dimension ref="A1:N52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02710103988647461</v>
+        <v>0.0005900859832763672</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0008459091186523438</v>
+        <v>0.0005340576171875</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.001439094543457031</v>
+        <v>0.006213188171386719</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(3, 2), (3, 0), (3, 1), (3, 3), (2, 4), (2, 2), (2, 0), (2, 1), (2, 3), (1, 4), (1, 2), (1, 0), (1, 1), (1, 3), (0, 4), (0, 3), (0, 2), (0, 1), (0, 0)]</t>
+          <t>[[3, 2], [3, 0], [3, 1], [3, 3], [2, 4], [2, 2], [2, 0], [2, 1], [2, 3], [1, 4], [1, 2], [1, 0], [1, 1], [1, 3], [0, 4], [0, 3], [0, 2], [0, 1], [0, 0]]</t>
         </is>
       </c>
     </row>
@@ -782,110 +782,120 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.03586101531982422</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.01229310035705566</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J51" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr">
+      <c r="K52" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L51" t="inlineStr">
+      <c r="L52" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M51" t="inlineStr">
+      <c r="M52" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N51" t="inlineStr">
+      <c r="N52" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>
